--- a/outcome/simulate data/B_Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/simulate data/B_Acute hemorrhagic conjunctivitis.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>4014.41253646011</v>
+        <v>4631.69817857018</v>
       </c>
       <c r="C2" t="n">
-        <v>68.719861329992</v>
+        <v>294.621889452187</v>
       </c>
       <c r="D2" t="n">
-        <v>7.97870911078858</v>
+        <v>68.5313484516843</v>
       </c>
       <c r="E2" t="n">
-        <v>234510.194010747</v>
+        <v>72814.1010067475</v>
       </c>
       <c r="F2" t="n">
-        <v>2019813.95600664</v>
+        <v>313033.794052583</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>4214.49526933477</v>
+        <v>4929.52843509268</v>
       </c>
       <c r="C3" t="n">
-        <v>69.296222517079</v>
+        <v>299.135369612918</v>
       </c>
       <c r="D3" t="n">
-        <v>7.87585922768308</v>
+        <v>67.8671966054918</v>
       </c>
       <c r="E3" t="n">
-        <v>256319.460571858</v>
+        <v>81234.9626987672</v>
       </c>
       <c r="F3" t="n">
-        <v>2255242.23602336</v>
+        <v>358055.906355516</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>4030.19210265716</v>
+        <v>4399.73010520191</v>
       </c>
       <c r="C4" t="n">
-        <v>63.6674506922347</v>
+        <v>254.870752510181</v>
       </c>
       <c r="D4" t="n">
-        <v>7.08450508882491</v>
+        <v>56.4203303759877</v>
       </c>
       <c r="E4" t="n">
-        <v>255113.848720523</v>
+        <v>75950.7507549215</v>
       </c>
       <c r="F4" t="n">
-        <v>2292672.27289327</v>
+        <v>343096.62615621</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>4775.91897162584</v>
+        <v>4383.98823198603</v>
       </c>
       <c r="C5" t="n">
-        <v>72.5098017161014</v>
+        <v>242.590961263782</v>
       </c>
       <c r="D5" t="n">
-        <v>7.90052852141763</v>
+        <v>52.4157472673958</v>
       </c>
       <c r="E5" t="n">
-        <v>314569.913083497</v>
+        <v>79225.3458994039</v>
       </c>
       <c r="F5" t="n">
-        <v>2887072.92957697</v>
+        <v>366671.350122047</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>3533.47852958398</v>
+        <v>3624.55913000467</v>
       </c>
       <c r="C6" t="n">
-        <v>51.5711834978057</v>
+        <v>191.707111242927</v>
       </c>
       <c r="D6" t="n">
-        <v>5.50295216746513</v>
+        <v>40.4425027042662</v>
       </c>
       <c r="E6" t="n">
-        <v>242101.686876397</v>
+        <v>68528.6466512596</v>
       </c>
       <c r="F6" t="n">
-        <v>2268867.71665003</v>
+        <v>324842.134102507</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>2833.49820936928</v>
+        <v>3264.1594866118</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7654513343789</v>
+        <v>165.114999886469</v>
       </c>
       <c r="D7" t="n">
-        <v>4.15607933513462</v>
+        <v>34.0199440284715</v>
       </c>
       <c r="E7" t="n">
-        <v>201901.69690235</v>
+        <v>64529.1897245184</v>
       </c>
       <c r="F7" t="n">
-        <v>1931799.52909606</v>
+        <v>313190.907813393</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>2624.97994166355</v>
+        <v>3045.99451131502</v>
       </c>
       <c r="C8" t="n">
-        <v>35.4321524462235</v>
+        <v>147.441382690607</v>
       </c>
       <c r="D8" t="n">
-        <v>3.62763079850808</v>
+        <v>29.6785283020142</v>
       </c>
       <c r="E8" t="n">
-        <v>194470.818689154</v>
+        <v>62927.262303491</v>
       </c>
       <c r="F8" t="n">
-        <v>1899454.5136649</v>
+        <v>312619.361329031</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>2059.73392690543</v>
+        <v>2509.08381540411</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7472046480971</v>
+        <v>116.282141064875</v>
       </c>
       <c r="D9" t="n">
-        <v>2.68292358143401</v>
+        <v>22.8736219448878</v>
       </c>
       <c r="E9" t="n">
-        <v>158614.84986795</v>
+        <v>54139.8836921182</v>
       </c>
       <c r="F9" t="n">
-        <v>1581298.80366464</v>
+        <v>275229.765005793</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>1985.31722523067</v>
+        <v>2200.70079283299</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8083067160157</v>
+        <v>97.6987580414189</v>
       </c>
       <c r="D10" t="n">
-        <v>2.43829666006544</v>
+        <v>18.785716453773</v>
       </c>
       <c r="E10" t="n">
-        <v>158877.610226138</v>
+        <v>49571.6023076011</v>
       </c>
       <c r="F10" t="n">
-        <v>1616490.95015856</v>
+        <v>257806.722011023</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>2912.93058857146</v>
+        <v>3275.61976075182</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0347198079852</v>
+        <v>139.368669398435</v>
       </c>
       <c r="D11" t="n">
-        <v>3.37443641403775</v>
+        <v>26.2019528413407</v>
       </c>
       <c r="E11" t="n">
-        <v>242193.020533342</v>
+        <v>76987.7825722306</v>
       </c>
       <c r="F11" t="n">
-        <v>2514542.74809764</v>
+        <v>409499.432427754</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>3181.76281859758</v>
+        <v>3571.68672518036</v>
       </c>
       <c r="C12" t="n">
-        <v>36.8414113670257</v>
+        <v>145.711389485784</v>
       </c>
       <c r="D12" t="n">
-        <v>3.47779723555306</v>
+        <v>26.7916974043483</v>
       </c>
       <c r="E12" t="n">
-        <v>274789.00123981</v>
+        <v>87549.4091975165</v>
       </c>
       <c r="F12" t="n">
-        <v>2910927.2186192</v>
+        <v>476152.961505124</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>3712.11747741914</v>
+        <v>4153.17821884746</v>
       </c>
       <c r="C13" t="n">
-        <v>41.389115097126</v>
+        <v>162.534649438868</v>
       </c>
       <c r="D13" t="n">
-        <v>3.8297495358975</v>
+        <v>29.2344603950954</v>
       </c>
       <c r="E13" t="n">
-        <v>332933.336067325</v>
+        <v>106124.382567401</v>
       </c>
       <c r="F13" t="n">
-        <v>3598098.52759244</v>
+        <v>590019.076268044</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>4014.41253646011</v>
+        <v>4631.69817857018</v>
       </c>
       <c r="C14" t="n">
-        <v>43.1097908160941</v>
+        <v>173.956279354269</v>
       </c>
       <c r="D14" t="n">
-        <v>3.9104422980646</v>
+        <v>30.6148257593637</v>
       </c>
       <c r="E14" t="n">
-        <v>373824.778729191</v>
+        <v>123321.95248716</v>
       </c>
       <c r="F14" t="n">
-        <v>4121147.11956346</v>
+        <v>700726.771597218</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>4214.49526933477</v>
+        <v>4929.52843509268</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5993552096911</v>
+        <v>177.75499146013</v>
       </c>
       <c r="D15" t="n">
-        <v>3.8774302209905</v>
+        <v>30.6162816193491</v>
       </c>
       <c r="E15" t="n">
-        <v>407390.66644034</v>
+        <v>136706.431660671</v>
       </c>
       <c r="F15" t="n">
-        <v>4580861.38574218</v>
+        <v>793703.523324984</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>4030.19210265716</v>
+        <v>4399.73010520191</v>
       </c>
       <c r="C16" t="n">
-        <v>40.1725676374484</v>
+        <v>152.38226883001</v>
       </c>
       <c r="D16" t="n">
-        <v>3.50311555359397</v>
+        <v>25.6919390982352</v>
       </c>
       <c r="E16" t="n">
-        <v>404316.909262706</v>
+        <v>127033.316587604</v>
       </c>
       <c r="F16" t="n">
-        <v>4636572.25570434</v>
+        <v>753451.303329212</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>4775.91897162584</v>
+        <v>4383.98823198603</v>
       </c>
       <c r="C17" t="n">
-        <v>45.8792874856085</v>
+        <v>145.894470295508</v>
       </c>
       <c r="D17" t="n">
-        <v>3.92327082466472</v>
+        <v>24.0836659925007</v>
       </c>
       <c r="E17" t="n">
-        <v>497161.208763115</v>
+        <v>131734.621464839</v>
       </c>
       <c r="F17" t="n">
-        <v>5813873.94419423</v>
+        <v>798024.388154887</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>3533.47852958398</v>
+        <v>3624.55913000467</v>
       </c>
       <c r="C18" t="n">
-        <v>32.7191797347402</v>
+        <v>115.944141127019</v>
       </c>
       <c r="D18" t="n">
-        <v>2.74400843954685</v>
+        <v>18.7430487581394</v>
       </c>
       <c r="E18" t="n">
-        <v>381594.851101181</v>
+        <v>113308.259987954</v>
       </c>
       <c r="F18" t="n">
-        <v>4550084.59124595</v>
+        <v>700922.729083505</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>2833.49820936928</v>
+        <v>3264.1594866118</v>
       </c>
       <c r="C19" t="n">
-        <v>25.2956247941334</v>
+        <v>100.402985729924</v>
       </c>
       <c r="D19" t="n">
-        <v>2.08076682345793</v>
+        <v>15.8975089727552</v>
       </c>
       <c r="E19" t="n">
-        <v>317395.287439626</v>
+        <v>106119.724195237</v>
       </c>
       <c r="F19" t="n">
-        <v>3858535.23421541</v>
+        <v>670214.256352842</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>2624.97994166355</v>
+        <v>3045.99451131502</v>
       </c>
       <c r="C20" t="n">
-        <v>22.5970240473714</v>
+        <v>90.1235195088455</v>
       </c>
       <c r="D20" t="n">
-        <v>1.8233360302631</v>
+        <v>13.9795165088872</v>
       </c>
       <c r="E20" t="n">
-        <v>304930.40498125</v>
+        <v>102948.515698509</v>
       </c>
       <c r="F20" t="n">
-        <v>3779072.85314913</v>
+        <v>663691.234032511</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>2059.73392690543</v>
+        <v>2509.08381540411</v>
       </c>
       <c r="C21" t="n">
-        <v>17.1008424324397</v>
+        <v>71.4340105435941</v>
       </c>
       <c r="D21" t="n">
-        <v>1.35366718614976</v>
+        <v>10.8569653388485</v>
       </c>
       <c r="E21" t="n">
-        <v>248087.418289837</v>
+        <v>88130.3113855112</v>
       </c>
       <c r="F21" t="n">
-        <v>3134081.91692394</v>
+        <v>579858.311806173</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>1985.31722523067</v>
+        <v>2200.70079283299</v>
       </c>
       <c r="C22" t="n">
-        <v>15.8998812138567</v>
+        <v>60.3078667168895</v>
       </c>
       <c r="D22" t="n">
-        <v>1.23483145031872</v>
+        <v>8.98260090264765</v>
       </c>
       <c r="E22" t="n">
-        <v>247893.957934895</v>
+        <v>80306.0072131425</v>
       </c>
       <c r="F22" t="n">
-        <v>3191921.03811439</v>
+        <v>539162.769454474</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>2912.93058857146</v>
+        <v>3275.61976075182</v>
       </c>
       <c r="C23" t="n">
-        <v>22.5074526397502</v>
+        <v>86.4305452520119</v>
       </c>
       <c r="D23" t="n">
-        <v>1.71513801495266</v>
+        <v>12.6180721419198</v>
       </c>
       <c r="E23" t="n">
-        <v>376993.556296534</v>
+        <v>124142.278470447</v>
       </c>
       <c r="F23" t="n">
-        <v>4947219.72218048</v>
+        <v>850342.643182519</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>3181.76281859758</v>
+        <v>3571.68672518036</v>
       </c>
       <c r="C24" t="n">
-        <v>23.7229753197541</v>
+        <v>90.7697831216721</v>
       </c>
       <c r="D24" t="n">
-        <v>1.7739419522907</v>
+        <v>12.9907811032299</v>
       </c>
       <c r="E24" t="n">
-        <v>426743.041180845</v>
+        <v>140541.770885688</v>
       </c>
       <c r="F24" t="n">
-        <v>5706846.61960744</v>
+        <v>981999.924520151</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>3712.11747741914</v>
+        <v>4153.17821884746</v>
       </c>
       <c r="C25" t="n">
-        <v>26.7115708109111</v>
+        <v>101.688515782994</v>
       </c>
       <c r="D25" t="n">
-        <v>1.96022035498885</v>
+        <v>14.2692945328211</v>
       </c>
       <c r="E25" t="n">
-        <v>515874.422500524</v>
+        <v>169624.752457971</v>
       </c>
       <c r="F25" t="n">
-        <v>7029728.12780481</v>
+        <v>1208811.63941458</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>4014.41253646011</v>
+        <v>4631.69817857018</v>
       </c>
       <c r="C26" t="n">
-        <v>27.8833955218813</v>
+        <v>109.2899673568</v>
       </c>
       <c r="D26" t="n">
-        <v>2.00827498542737</v>
+        <v>15.0388229802325</v>
       </c>
       <c r="E26" t="n">
-        <v>577960.743706467</v>
+        <v>196290.917969933</v>
       </c>
       <c r="F26" t="n">
-        <v>8024552.47903147</v>
+        <v>1426483.1792733</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>4214.49526933477</v>
+        <v>4929.52843509268</v>
       </c>
       <c r="C27" t="n">
-        <v>28.2607167088699</v>
+        <v>112.128413264145</v>
       </c>
       <c r="D27" t="n">
-        <v>1.99787697108074</v>
+        <v>15.1327037509085</v>
       </c>
       <c r="E27" t="n">
-        <v>628503.889629607</v>
+        <v>216718.045720868</v>
       </c>
       <c r="F27" t="n">
-        <v>8890422.49965815</v>
+        <v>1605810.23671519</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>4030.19210265716</v>
+        <v>4399.73010520191</v>
       </c>
       <c r="C28" t="n">
-        <v>26.094186258399</v>
+        <v>96.4993889541843</v>
       </c>
       <c r="D28" t="n">
-        <v>1.81080865983222</v>
+        <v>12.774831186712</v>
       </c>
       <c r="E28" t="n">
-        <v>622454.681034254</v>
+        <v>200598.420450213</v>
       </c>
       <c r="F28" t="n">
-        <v>8969720.95650629</v>
+        <v>1515293.99611599</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>4775.91897162584</v>
+        <v>4383.98823198603</v>
       </c>
       <c r="C29" t="n">
-        <v>29.862100560796</v>
+        <v>92.7407676307024</v>
       </c>
       <c r="D29" t="n">
-        <v>2.03435525065237</v>
+        <v>12.0445807107311</v>
       </c>
       <c r="E29" t="n">
-        <v>763824.432815709</v>
+        <v>207237.370459605</v>
       </c>
       <c r="F29" t="n">
-        <v>11212103.6953704</v>
+        <v>1595684.67178509</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>3533.47852958398</v>
+        <v>3624.55913000467</v>
       </c>
       <c r="C30" t="n">
-        <v>21.3390362000712</v>
+        <v>73.972544773668</v>
       </c>
       <c r="D30" t="n">
-        <v>1.42722523512767</v>
+        <v>9.4262914378985</v>
       </c>
       <c r="E30" t="n">
-        <v>585100.02054307</v>
+        <v>177598.714862339</v>
       </c>
       <c r="F30" t="n">
-        <v>8748072.98226767</v>
+        <v>1393700.69061106</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>2833.49820936928</v>
+        <v>3264.1594866118</v>
       </c>
       <c r="C31" t="n">
-        <v>16.5297535524406</v>
+        <v>64.2848983560639</v>
       </c>
       <c r="D31" t="n">
-        <v>1.08549610989713</v>
+        <v>8.03870004755044</v>
       </c>
       <c r="E31" t="n">
-        <v>485712.75288696</v>
+        <v>165742.459372384</v>
       </c>
       <c r="F31" t="n">
-        <v>7396352.71770782</v>
+        <v>1325430.36697638</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>2624.97994166355</v>
+        <v>3045.99451131502</v>
       </c>
       <c r="C32" t="n">
-        <v>14.7945349982041</v>
+        <v>57.9020703305017</v>
       </c>
       <c r="D32" t="n">
-        <v>0.953980672102521</v>
+        <v>7.10613058352997</v>
       </c>
       <c r="E32" t="n">
-        <v>465747.635527064</v>
+        <v>160237.492545646</v>
       </c>
       <c r="F32" t="n">
-        <v>7222913.31012992</v>
+        <v>1305644.81666932</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>2059.73392690543</v>
+        <v>2509.08381540411</v>
       </c>
       <c r="C33" t="n">
-        <v>11.2170288819813</v>
+        <v>46.0478995772949</v>
       </c>
       <c r="D33" t="n">
-        <v>0.710270783243339</v>
+        <v>5.5470910875266</v>
       </c>
       <c r="E33" t="n">
-        <v>378219.927423054</v>
+        <v>136716.368184294</v>
       </c>
       <c r="F33" t="n">
-        <v>5973079.49268662</v>
+        <v>1134919.4547894</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>1985.31722523067</v>
+        <v>2200.70079283299</v>
       </c>
       <c r="C34" t="n">
-        <v>10.4483143460127</v>
+        <v>39.0018206540334</v>
       </c>
       <c r="D34" t="n">
-        <v>0.649727154336957</v>
+        <v>4.61221379013843</v>
       </c>
       <c r="E34" t="n">
-        <v>377236.399506088</v>
+        <v>124175.843546804</v>
       </c>
       <c r="F34" t="n">
-        <v>6066368.71875842</v>
+        <v>1050056.26363872</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>2912.93058857146</v>
+        <v>3275.61976075182</v>
       </c>
       <c r="C35" t="n">
-        <v>14.8167530807396</v>
+        <v>56.0716704465152</v>
       </c>
       <c r="D35" t="n">
-        <v>0.904912675734046</v>
+        <v>6.51011138673136</v>
       </c>
       <c r="E35" t="n">
-        <v>572673.686846084</v>
+        <v>191356.610773037</v>
       </c>
       <c r="F35" t="n">
-        <v>9376777.27516887</v>
+        <v>1648156.87161614</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>3181.76281859758</v>
+        <v>3571.68672518036</v>
       </c>
       <c r="C36" t="n">
-        <v>15.6441900188987</v>
+        <v>59.0668587776261</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9384369122602</v>
+        <v>6.73378326232367</v>
       </c>
       <c r="E36" t="n">
-        <v>647116.573090733</v>
+        <v>215974.682365567</v>
       </c>
       <c r="F36" t="n">
-        <v>10787741.2978434</v>
+        <v>1894469.35932825</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>3712.11747741914</v>
+        <v>4153.17821884746</v>
       </c>
       <c r="C37" t="n">
-        <v>17.6450943109515</v>
+        <v>66.3687327840452</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03968856786893</v>
+        <v>7.4301535149993</v>
       </c>
       <c r="E37" t="n">
-        <v>780943.185869405</v>
+        <v>259894.811818005</v>
       </c>
       <c r="F37" t="n">
-        <v>13253792.1373949</v>
+        <v>2321471.45852215</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
